--- a/테이블정의서/테이블정의서.xlsx
+++ b/테이블정의서/테이블정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ParkBox\테이블정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBB15FE-F99E-44E8-8713-01233522BF64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A5DAC5-C878-4028-A7F5-A3335B66CE1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12285" yWindow="390" windowWidth="15435" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1352,13 +1352,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1374,9 +1377,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1695,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="K99" sqref="K99"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1825,16 +1825,16 @@
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="31" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="32"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2092,16 +2092,16 @@
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="39" t="s">
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="39"/>
+      <c r="G31" s="34"/>
       <c r="H31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2110,15 +2110,15 @@
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
@@ -2275,16 +2275,16 @@
       <c r="A42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="31" t="s">
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="32"/>
+      <c r="G42" s="33"/>
       <c r="H42" s="1" t="s">
         <v>90</v>
       </c>
@@ -2464,16 +2464,16 @@
       <c r="A53" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="39" t="s">
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="39"/>
+      <c r="G53" s="34"/>
       <c r="H53" s="1" t="s">
         <v>108</v>
       </c>
@@ -2482,15 +2482,15 @@
       <c r="A54" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="36"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
@@ -2587,16 +2587,16 @@
       <c r="A61" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="39" t="s">
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G61" s="39"/>
+      <c r="G61" s="34"/>
       <c r="H61" s="1" t="s">
         <v>14</v>
       </c>
@@ -2605,15 +2605,15 @@
       <c r="A62" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="36"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
@@ -2822,16 +2822,16 @@
       <c r="A74" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="39" t="s">
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G74" s="39"/>
+      <c r="G74" s="34"/>
       <c r="H74" s="1" t="s">
         <v>133</v>
       </c>
@@ -2840,15 +2840,15 @@
       <c r="A75" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="36"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
@@ -3013,16 +3013,16 @@
       <c r="A86" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="33" t="s">
+      <c r="B86" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="39" t="s">
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G86" s="39"/>
+      <c r="G86" s="34"/>
       <c r="H86" s="1" t="s">
         <v>23</v>
       </c>
@@ -3031,15 +3031,15 @@
       <c r="A87" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="35"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="36"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
@@ -3252,16 +3252,16 @@
       <c r="A99" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="33" t="s">
+      <c r="B99" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="31" t="s">
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G99" s="32"/>
+      <c r="G99" s="33"/>
       <c r="H99" s="1" t="s">
         <v>152</v>
       </c>
@@ -3409,16 +3409,16 @@
       <c r="A109" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="33" t="s">
+      <c r="B109" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="31" t="s">
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G109" s="32"/>
+      <c r="G109" s="33"/>
       <c r="H109" s="1" t="s">
         <v>25</v>
       </c>
@@ -3604,16 +3604,16 @@
       <c r="A121" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B121" s="33" t="s">
+      <c r="B121" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C121" s="33"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="31" t="s">
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G121" s="32"/>
+      <c r="G121" s="33"/>
       <c r="H121" s="1" t="s">
         <v>26</v>
       </c>
@@ -3813,16 +3813,16 @@
       <c r="A133" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B133" s="33" t="s">
+      <c r="B133" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="31" t="s">
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G133" s="32"/>
+      <c r="G133" s="33"/>
       <c r="H133" s="1" t="s">
         <v>30</v>
       </c>
@@ -4058,16 +4058,16 @@
       <c r="A146" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B146" s="33" t="s">
+      <c r="B146" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="C146" s="33"/>
-      <c r="D146" s="33"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="31" t="s">
+      <c r="C146" s="31"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G146" s="32"/>
+      <c r="G146" s="33"/>
       <c r="H146" s="1" t="s">
         <v>212</v>
       </c>
@@ -4268,12 +4268,24 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B122:H122"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="B134:H134"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="F53:G53"/>
     <mergeCell ref="B100:H100"/>
     <mergeCell ref="B61:E61"/>
     <mergeCell ref="F61:G61"/>
@@ -4286,24 +4298,12 @@
     <mergeCell ref="B87:H87"/>
     <mergeCell ref="B99:E99"/>
     <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="B134:H134"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B122:H122"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="F121:G121"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/테이블정의서/테이블정의서.xlsx
+++ b/테이블정의서/테이블정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ParkBox\테이블정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A5DAC5-C878-4028-A7F5-A3335B66CE1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE54072D-DBB8-4A22-8DD9-3D800265EAC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12285" yWindow="390" windowWidth="15435" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="246">
   <si>
     <t>테이블정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,13 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NUMBER</t>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -577,10 +570,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고객아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EMAIL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -739,10 +728,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>글작성자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>글작성일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -803,22 +788,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원은 이메일 / 관리자는 '관리자'로 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRITER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>현재 상영중인 영화 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영화ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>영화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -871,10 +844,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MOVIEID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -883,10 +852,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -928,6 +893,69 @@
   </si>
   <si>
     <t>극장이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCALNUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02:서울 / 031:경기도 등등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극장의 주차정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형식지정:입사일+핸드폰번호4자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간표아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMETABLEID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPLOYEEID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIRECTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTOR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1258,7 +1286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1352,16 +1380,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1378,6 +1403,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1693,10 +1730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="H162" sqref="H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1814,10 +1851,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1825,16 +1862,16 @@
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="32" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="33"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1855,7 +1892,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>34</v>
@@ -1978,2332 +2015,2476 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="18" t="s">
-        <v>72</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="18" t="s">
-        <v>58</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="40">
+        <v>100</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="18" t="s">
-        <v>66</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="40">
+        <v>100</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="18" t="s">
+      <c r="G28" s="8"/>
+      <c r="H28" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
+    <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B31" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D31" s="15">
         <v>1</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15" t="s">
+      <c r="E31" s="15"/>
+      <c r="F31" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="G31" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B34" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="34" t="s">
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="34"/>
-      <c r="H31" s="1" t="s">
+      <c r="G34" s="39"/>
+      <c r="H34" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="B35" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="35"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H36" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="9">
-        <v>20</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="9">
-        <v>30</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="9">
-        <v>100</v>
-      </c>
-      <c r="E37" s="9"/>
+        <v>231</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="F37" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G37" s="9"/>
-      <c r="H37" s="11" t="s">
-        <v>84</v>
+      <c r="H37" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="D38" s="9">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="9">
+        <v>30</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="15" t="s">
+      <c r="G39" s="9"/>
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="9">
+        <v>100</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="9">
+        <v>100</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="11"/>
+    </row>
+    <row r="43" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="16">
+        <v>320</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="32"/>
+      <c r="H46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="16" t="s">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="30"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="9">
+        <v>20</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" s="9"/>
+      <c r="H49" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="16">
-        <v>320</v>
-      </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16" t="s">
+      <c r="D50" s="9">
+        <v>20</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="16"/>
-      <c r="H39" s="17"/>
-    </row>
-    <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="G50" s="9"/>
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="12">
         <v>1</v>
       </c>
-      <c r="B42" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="32" t="s">
+      <c r="E51" s="12"/>
+      <c r="F51" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" s="12"/>
+      <c r="H51" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" s="12"/>
+      <c r="H52" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G53" s="12"/>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="16">
+        <v>16</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54" s="16"/>
+      <c r="H54" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="G57" s="39"/>
+      <c r="H57" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="30"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="B58" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="35"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B59" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F59" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G59" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H59" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="9">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G60" s="9"/>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="9">
         <v>20</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E61" s="9"/>
+      <c r="F61" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G61" s="9"/>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G62" s="16"/>
+      <c r="H62" s="22"/>
+    </row>
+    <row r="64" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="39"/>
+      <c r="H65" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="35"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="9">
-        <v>20</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="12">
-        <v>1</v>
-      </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="12">
-        <v>20</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="13"/>
-    </row>
-    <row r="50" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="16">
-        <v>16</v>
-      </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G50" s="16"/>
-      <c r="H50" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" s="34"/>
-      <c r="H53" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="36"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F55" s="5" t="s">
+      <c r="F67" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G67" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="H67" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56" s="9">
-        <v>20</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G56" s="9"/>
-      <c r="H56" s="10"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="9">
-        <v>20</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="16">
-        <v>20</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G58" s="16"/>
-      <c r="H58" s="22"/>
-    </row>
-    <row r="60" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G61" s="34"/>
-      <c r="H61" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="36"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" s="9">
-        <v>20</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G64" s="9"/>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D65" s="9">
-        <v>4</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="10"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D66" s="9">
-        <v>1</v>
-      </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D67" s="9">
-        <v>1</v>
-      </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H67" s="23"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D68" s="9">
-        <v>1</v>
-      </c>
-      <c r="E68" s="9"/>
+        <v>231</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="F68" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H68" s="23"/>
+        <v>97</v>
+      </c>
+      <c r="G68" s="9"/>
+      <c r="H68" s="10"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D69" s="9">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H69" s="23"/>
+        <v>97</v>
+      </c>
+      <c r="G69" s="9"/>
+      <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D70" s="9">
         <v>1</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G70" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H70" s="11"/>
-    </row>
-    <row r="71" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D71" s="16">
+      <c r="C71" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="9">
         <v>1</v>
       </c>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G71" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="H71" s="17"/>
-    </row>
-    <row r="73" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H71" s="23"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="9">
+        <v>1</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H72" s="23"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="9">
+        <v>1</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H73" s="23"/>
+    </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="9">
         <v>1</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="E74" s="9"/>
+      <c r="F74" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H74" s="11"/>
+    </row>
+    <row r="75" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" s="16">
+        <v>1</v>
+      </c>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H75" s="17"/>
+    </row>
+    <row r="77" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="34" t="s">
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G74" s="34"/>
-      <c r="H74" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+      <c r="G78" s="39"/>
+      <c r="H78" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="36"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+      <c r="B79" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="35"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B80" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F80" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G80" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="H80" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D77" s="9">
-        <v>20</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G77" s="9"/>
-      <c r="H77" s="10"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="7" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B81" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D81" s="41"/>
+      <c r="E81" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D78" s="9">
-        <v>20</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G78" s="9"/>
-      <c r="H78" s="10"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G79" s="9"/>
-      <c r="H79" s="10"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D80" s="9">
-        <v>100</v>
-      </c>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G80" s="9"/>
-      <c r="H80" s="10"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D81" s="9">
-        <v>1</v>
-      </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G81" s="9"/>
-      <c r="H81" s="10" t="s">
-        <v>137</v>
+      <c r="F81" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="G81" s="41"/>
+      <c r="H81" s="42" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
+      <c r="E82" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="F82" s="9" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="14"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="22"/>
-    </row>
-    <row r="85" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G83" s="9"/>
+      <c r="H83" s="10"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G84" s="9"/>
+      <c r="H84" s="10"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D85" s="9">
+        <v>20</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G85" s="9"/>
+      <c r="H85" s="10"/>
+    </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D86" s="9">
+        <v>100</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G86" s="9"/>
+      <c r="H86" s="10"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87" s="9">
         <v>1</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="E87" s="9"/>
+      <c r="F87" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G87" s="9"/>
+      <c r="H87" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G88" s="9"/>
+      <c r="H88" s="10"/>
+    </row>
+    <row r="89" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="14"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="22"/>
+    </row>
+    <row r="91" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" s="39"/>
+      <c r="H92" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="35"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G86" s="34"/>
-      <c r="H86" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B87" s="35" t="s">
+      <c r="B95" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="36"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G89" s="9"/>
-      <c r="H89" s="18"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D90" s="9">
-        <v>320</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G90" s="9"/>
-      <c r="H90" s="10"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D91" s="9">
-        <v>100</v>
-      </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G91" s="9"/>
-      <c r="H91" s="26"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D92" s="9">
-        <v>20</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G92" s="9"/>
-      <c r="H92" s="10"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D93" s="9">
-        <v>20</v>
-      </c>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G93" s="9"/>
-      <c r="H93" s="23"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G94" s="9"/>
-      <c r="H94" s="10"/>
-    </row>
-    <row r="95" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="C95" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D95" s="9">
-        <v>4</v>
-      </c>
-      <c r="E95" s="9"/>
+        <v>230</v>
+      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="F95" s="9" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="G95" s="9"/>
       <c r="H95" s="18"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>138</v>
+        <v>242</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D96" s="9">
+        <v>320</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="F96" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="G97" s="16"/>
-      <c r="H97" s="22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97" s="9">
+        <v>100</v>
+      </c>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G97" s="9"/>
+      <c r="H97" s="26"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" s="9">
+        <v>20</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G98" s="9"/>
+      <c r="H98" s="10"/>
+    </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B99" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C99" s="31"/>
-      <c r="D99" s="31"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="32" t="s">
+      <c r="A99" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99" s="9">
+        <v>20</v>
+      </c>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G99" s="9"/>
+      <c r="H99" s="23"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G100" s="9"/>
+      <c r="H100" s="10"/>
+    </row>
+    <row r="101" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D101" s="9">
         <v>4</v>
       </c>
-      <c r="G99" s="33"/>
-      <c r="H99" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B100" s="28"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="30"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G101" s="9"/>
+      <c r="H101" s="18"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D102" s="9">
-        <v>20</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>101</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
       <c r="F102" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="7" t="s">
+    <row r="103" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="G103" s="16"/>
+      <c r="H103" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105" s="32"/>
+      <c r="H105" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B106" s="28"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="30"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G108" s="9"/>
+      <c r="H108" s="10"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G109" s="9"/>
+      <c r="H109" s="10"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B110" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="C110" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G110" s="9"/>
+      <c r="H110" s="10"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C103" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9" t="s">
+      <c r="B111" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D111" s="9">
+        <v>20</v>
+      </c>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G111" s="9"/>
+      <c r="H111" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="G103" s="9"/>
-      <c r="H103" s="10"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9" t="s">
+      <c r="F112" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G112" s="16"/>
+      <c r="H112" s="22"/>
+    </row>
+    <row r="114" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G115" s="32"/>
+      <c r="H115" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B116" s="28"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="30"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D118" s="9">
+        <v>320</v>
+      </c>
+      <c r="E118" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G104" s="9"/>
-      <c r="H104" s="10"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C105" s="9" t="s">
+      <c r="F118" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G118" s="9"/>
+      <c r="H118" s="10"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D119" s="9">
+        <v>10</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G119" s="9"/>
+      <c r="H119" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D120" s="9"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G120" s="8"/>
+      <c r="H120" s="18"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G121" s="9"/>
+      <c r="H121" s="10"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G122" s="9"/>
+      <c r="H122" s="10"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D123" s="9">
+        <v>100</v>
+      </c>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G123" s="9"/>
+      <c r="H123" s="10"/>
+    </row>
+    <row r="124" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D105" s="9">
-        <v>20</v>
-      </c>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9" t="s">
+      <c r="B124" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D124" s="16">
+        <v>30</v>
+      </c>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G124" s="16"/>
+      <c r="H124" s="22"/>
+    </row>
+    <row r="126" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="33"/>
+      <c r="F127" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G127" s="32"/>
+      <c r="H127" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B128" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="30"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G130" s="9"/>
+      <c r="H130" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="G105" s="9"/>
-      <c r="H105" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="14" t="s">
+      <c r="F131" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G131" s="9"/>
+      <c r="H131" s="18"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="B132" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B106" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F106" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G106" s="16"/>
-      <c r="H106" s="22"/>
-    </row>
-    <row r="108" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
+      <c r="C132" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D132" s="9">
+        <v>320</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G132" s="9"/>
+      <c r="H132" s="18"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D133" s="9">
+        <v>40</v>
+      </c>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G133" s="9"/>
+      <c r="H133" s="18"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D134" s="9">
+        <v>1000</v>
+      </c>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G134" s="9"/>
+      <c r="H134" s="18"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G135" s="9">
+        <v>0</v>
+      </c>
+      <c r="H135" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G136" s="16">
+        <v>0</v>
+      </c>
+      <c r="H136" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C109" s="31"/>
-      <c r="D109" s="31"/>
-      <c r="E109" s="31"/>
-      <c r="F109" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="G109" s="33"/>
-      <c r="H109" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
+      <c r="B139" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" s="33"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="33"/>
+      <c r="F139" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G139" s="32"/>
+      <c r="H139" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B110" s="28"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="29"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="29"/>
-      <c r="H110" s="30"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
+      <c r="B140" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="30"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B141" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C141" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D141" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E141" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="F141" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G111" s="5" t="s">
+      <c r="G141" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H111" s="6" t="s">
+      <c r="H141" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D112" s="9">
-        <v>320</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G112" s="9"/>
-      <c r="H112" s="10"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D113" s="9">
-        <v>10</v>
-      </c>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G113" s="9"/>
-      <c r="H113" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D114" s="9"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G114" s="8"/>
-      <c r="H114" s="18"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G115" s="9"/>
-      <c r="H115" s="10"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G116" s="9"/>
-      <c r="H116" s="10"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D117" s="9">
-        <v>100</v>
-      </c>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G117" s="9"/>
-      <c r="H117" s="10"/>
-    </row>
-    <row r="118" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D118" s="16">
-        <v>30</v>
-      </c>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G118" s="16"/>
-      <c r="H118" s="22"/>
-    </row>
-    <row r="120" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B121" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C121" s="31"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31"/>
-      <c r="F121" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G121" s="33"/>
-      <c r="H121" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B122" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C122" s="29"/>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="29"/>
-      <c r="H122" s="30"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G124" s="9"/>
-      <c r="H124" s="18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D125" s="24">
-        <v>20</v>
-      </c>
-      <c r="E125" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G125" s="9"/>
-      <c r="H125" s="18"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D126" s="9">
-        <v>320</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F126" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G126" s="9"/>
-      <c r="H126" s="18"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D127" s="9">
-        <v>40</v>
-      </c>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G127" s="9"/>
-      <c r="H127" s="18"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D128" s="9">
-        <v>1000</v>
-      </c>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G128" s="9"/>
-      <c r="H128" s="18"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G129" s="9">
-        <v>0</v>
-      </c>
-      <c r="H129" s="18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D130" s="16"/>
-      <c r="E130" s="16"/>
-      <c r="F130" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G130" s="16">
-        <v>0</v>
-      </c>
-      <c r="H130" s="19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B133" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C133" s="31"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="31"/>
-      <c r="F133" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G133" s="33"/>
-      <c r="H133" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B134" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C134" s="29"/>
-      <c r="D134" s="29"/>
-      <c r="E134" s="29"/>
-      <c r="F134" s="29"/>
-      <c r="G134" s="29"/>
-      <c r="H134" s="30"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F136" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G136" s="9"/>
-      <c r="H136" s="18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D137" s="9">
-        <v>1</v>
-      </c>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G137" s="9"/>
-      <c r="H137" s="18" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D138" s="9">
-        <v>320</v>
-      </c>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G138" s="9"/>
-      <c r="H138" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D139" s="9">
-        <v>100</v>
-      </c>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G139" s="9"/>
-      <c r="H139" s="18"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D140" s="9">
-        <v>4000</v>
-      </c>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G140" s="9"/>
-      <c r="H140" s="18"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G141" s="9"/>
-      <c r="H141" s="18"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D142" s="9">
-        <v>1</v>
-      </c>
-      <c r="E142" s="9"/>
+        <v>230</v>
+      </c>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="F142" s="9" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G142" s="9"/>
       <c r="H142" s="18" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D143" s="9"/>
+        <v>96</v>
+      </c>
+      <c r="D143" s="9">
+        <v>1</v>
+      </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G143" s="9"/>
-      <c r="H143" s="18"/>
-    </row>
-    <row r="144" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B144" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D144" s="16">
-        <v>1</v>
-      </c>
-      <c r="E144" s="16"/>
-      <c r="F144" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G144" s="16"/>
-      <c r="H144" s="19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="H143" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D144" s="9">
+        <v>320</v>
+      </c>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G144" s="9"/>
+      <c r="H144" s="10"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D145" s="9">
+        <v>320</v>
+      </c>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G145" s="9"/>
+      <c r="H145" s="10"/>
+    </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B146" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C146" s="31"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="31"/>
-      <c r="F146" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G146" s="33"/>
-      <c r="H146" s="1" t="s">
-        <v>212</v>
-      </c>
+      <c r="A146" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D146" s="9">
+        <v>100</v>
+      </c>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G146" s="9"/>
+      <c r="H146" s="18"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B147" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="C147" s="29"/>
-      <c r="D147" s="29"/>
-      <c r="E147" s="29"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="29"/>
-      <c r="H147" s="30"/>
+      <c r="A147" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D147" s="9">
+        <v>4000</v>
+      </c>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G147" s="9"/>
+      <c r="H147" s="18"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H148" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="A148" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G148" s="9"/>
+      <c r="H148" s="18"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D149" s="9">
-        <v>20</v>
-      </c>
-      <c r="E149" s="9" t="s">
-        <v>37</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E149" s="9"/>
       <c r="F149" s="9" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="G149" s="9"/>
-      <c r="H149" s="18"/>
+      <c r="H149" s="18" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D150" s="9">
-        <v>100</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="D150" s="9"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="G150" s="9"/>
       <c r="H150" s="18"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D151" s="9">
+    <row r="151" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D151" s="16">
         <v>1</v>
       </c>
-      <c r="E151" s="9"/>
-      <c r="F151" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G151" s="9"/>
-      <c r="H151" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G152" s="9"/>
-      <c r="H152" s="18"/>
-    </row>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G151" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H151" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D153" s="9">
-        <v>4</v>
-      </c>
-      <c r="E153" s="9"/>
-      <c r="F153" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G153" s="9"/>
-      <c r="H153" s="18"/>
+      <c r="A153" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C153" s="33"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="33"/>
+      <c r="F153" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G153" s="32"/>
+      <c r="H153" s="1" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D154" s="9"/>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G154" s="9"/>
-      <c r="H154" s="18"/>
+      <c r="A154" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B154" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C154" s="29"/>
+      <c r="D154" s="29"/>
+      <c r="E154" s="29"/>
+      <c r="F154" s="29"/>
+      <c r="G154" s="29"/>
+      <c r="H154" s="30"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B155" s="8"/>
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
-      <c r="F155" s="9"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="18"/>
+      <c r="A155" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B156" s="8"/>
-      <c r="C156" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>231</v>
+      </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
+      <c r="F156" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="G156" s="9"/>
-      <c r="H156" s="18"/>
-    </row>
-    <row r="157" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="14"/>
-      <c r="B157" s="15"/>
-      <c r="C157" s="16"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="16"/>
-      <c r="F157" s="16"/>
-      <c r="G157" s="16"/>
-      <c r="H157" s="19"/>
+      <c r="H156" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D157" s="9">
+        <v>100</v>
+      </c>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G157" s="9"/>
+      <c r="H157" s="18"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D158" s="9">
+        <v>1</v>
+      </c>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G158" s="9"/>
+      <c r="H158" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G159" s="9"/>
+      <c r="H159" s="18"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D160" s="9">
+        <v>4</v>
+      </c>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G160" s="9"/>
+      <c r="H160" s="18"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G161" s="9"/>
+      <c r="H161" s="18"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D162" s="9">
+        <v>320</v>
+      </c>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G162" s="9"/>
+      <c r="H162" s="18"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D163" s="9">
+        <v>320</v>
+      </c>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G163" s="9"/>
+      <c r="H163" s="18"/>
+    </row>
+    <row r="164" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="14"/>
+      <c r="B164" s="15"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="16"/>
+      <c r="G164" s="16"/>
+      <c r="H164" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B134:H134"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B128:H128"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="B106:H106"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="B58:H58"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="B100:H100"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B122:H122"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="B140:H140"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="B154:H154"/>
+    <mergeCell ref="B139:E139"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
